--- a/tests/product_files/PRD-1234-1234-1234-request-parameters-not-all-columns.xlsx
+++ b/tests/product_files/PRD-1234-1234-1234-request-parameters-not-all-columns.xlsx
@@ -8,44 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavellonkin/Documents/git/swo-marketplace-cli/tests/product_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CE2742-DEB6-DA4B-B2FC-C44055DA84E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA425555-F98A-E94E-B2D8-2424F9042F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="6" xr2:uid="{FDAEB95B-3B22-1442-A2E6-0D0AC3F758A5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="2" r:id="rId1"/>
-    <sheet name="Parameters Groups" sheetId="5" r:id="rId2"/>
-    <sheet name="Items Groups" sheetId="8" r:id="rId3"/>
-    <sheet name="Agreements Parameters" sheetId="9" r:id="rId4"/>
-    <sheet name="Item Parameters" sheetId="16" r:id="rId5"/>
-    <sheet name="Request Parameters" sheetId="17" r:id="rId6"/>
-    <sheet name="Subscription Parameters" sheetId="18" r:id="rId7"/>
-    <sheet name="Items" sheetId="10" r:id="rId8"/>
-    <sheet name="Templates" sheetId="11" r:id="rId9"/>
-    <sheet name="Settings" sheetId="12" r:id="rId10"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters Groups" sheetId="2" r:id="rId2"/>
+    <sheet name="Items Groups" sheetId="3" r:id="rId3"/>
+    <sheet name="Agreements Parameters" sheetId="4" r:id="rId4"/>
+    <sheet name="Item Parameters" sheetId="5" r:id="rId5"/>
+    <sheet name="Request Parameters" sheetId="6" r:id="rId6"/>
+    <sheet name="Subscription Parameters" sheetId="7" r:id="rId7"/>
+    <sheet name="Items" sheetId="8" r:id="rId8"/>
+    <sheet name="Templates" sheetId="9" r:id="rId9"/>
+    <sheet name="Settings" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="121">
   <si>
     <t>General Information</t>
   </si>
@@ -56,24 +40,24 @@
     <t>PRD-1234-1234-1234</t>
   </si>
   <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Adobe Commerce (CLI Test)</t>
+  </si>
+  <si>
+    <t>Account ID</t>
+  </si>
+  <si>
+    <t>ACC-1234-1234</t>
+  </si>
+  <si>
     <t>Account Name</t>
   </si>
   <si>
     <t>Adobe</t>
   </si>
   <si>
-    <t>Account ID</t>
-  </si>
-  <si>
-    <t>ACC-1234-1234</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Adobe Commerce</t>
-  </si>
-  <si>
     <t>Export Date</t>
   </si>
   <si>
@@ -86,10 +70,19 @@
     <t>Catalog Description</t>
   </si>
   <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque sit amet ipsum sem. Donec dapibus nisi velit, id accumsan dolor tincidunt quis. Morbi justo leo, tincidunt eget lorem ut, dapibus fringilla ligula.</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque sit amet ipsum sem. Donec dapibus nisi velit, id accumsan dolor tincidunt quis. Morbi justo leo, tincidunt eget lorem ut, dapibus fringilla ligula. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia curae; Pellentesque bibendum vestibulum sem, non pulvinar odio interdum nec. Pellentesque ipsum leo, aliquam nec malesuada non, sodales vitae urna. Aliquam erat volutpat. Nunc aliquet sed mauris quis pharetra. Mauris volutpat tellus vel commodo tincidunt. Morbi luctus venenatis dignissim. Sed placerat velit eu elit porttitor, sit amet fringilla nisi porta. Sed placerat enim ut magna facilisis, quis viverra lorem auctor. Donec sit amet accumsan metus. </t>
   </si>
   <si>
-    <t>Product Description</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Draft</t>
   </si>
   <si>
     <t>Created</t>
@@ -104,6 +97,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Action</t>
+  </si>
+  <si>
     <t>Label</t>
   </si>
   <si>
@@ -116,97 +112,198 @@
     <t>Default</t>
   </si>
   <si>
+    <t>PGR-4944-4118-0002</t>
+  </si>
+  <si>
+    <t>Agreement</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Default Group</t>
+  </si>
+  <si>
     <t>True</t>
   </si>
   <si>
+    <t>PGR-4944-4118-0003</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Additional Group</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
-    <t>Default Group</t>
-  </si>
-  <si>
-    <t>Additional Group</t>
-  </si>
-  <si>
-    <t>Agreement</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>PRM-1234-1234-1234-0003</t>
-  </si>
-  <si>
-    <t>PRM-1234-1234-1234-0004</t>
-  </si>
-  <si>
-    <t>PGR-1234-1234-1234-0001</t>
-  </si>
-  <si>
-    <t>PGR-1234-1234-1234-0002</t>
-  </si>
-  <si>
-    <t>IGR-1234-1234-1234-0004</t>
-  </si>
-  <si>
-    <t>IGR-1234-1234-1234-0003</t>
+    <t>Multiple Choice</t>
   </si>
   <si>
     <t>Required</t>
   </si>
   <si>
-    <t>Multiple Choice</t>
+    <t>IGR-4944-4118-0002</t>
+  </si>
+  <si>
+    <t>IGR-4944-4118-0003</t>
+  </si>
+  <si>
+    <t>ExternalId</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Group ID</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>PAR-4944-4118-0001</t>
   </si>
   <si>
     <t>Parameter 1</t>
   </si>
   <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>ExternalId</t>
+    <t>external_1</t>
+  </si>
+  <si>
+    <t>Test parameter 1</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>{
+        "optionsList": [
+            {
+                "label": "Create account",
+                "value": "New",
+                "order": 0,
+                "description": "Create a new Adobe VIP Marketplace account if you have never purchased Adobe products before, or if you wish to set up an new account in addition to an account you may already have. You will need to provide details such as your company address and contacts, and you will be required to accept both the Adobe Terms and Conditions as well as SoftwareOne's terms and conditions."
+            },
+            {
+                "label": "Migrate account",
+                "value": "Migrate",
+                "order": 1,
+                "description": "Migrate from Adobe VIP if you are currently purchasing products under the Adobe VIP licensing program. This comes with several advantages including the ability to self-service manage your subscriptions within the SoftwareOne Marketplace. You will need to provide details such as your company address and contacts, and you will be required to accept both the Adobe Terms and Conditions as well as SoftwareOne's terms and conditions.\n\nNote: If you are purchasing Adobe products under a different licensing program such as CLP or TLP, you cannot use this option."
+            }
+        ],
+        "defaultValue": "New",
+        "label": "Some label",
+        "hintText": "Some hint text"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "hidden": false,
+        "unique": null,
+        "readonly": false,
+        "optional": false
+    }</t>
+  </si>
+  <si>
+    <t>PAR-4944-4118-0002</t>
   </si>
   <si>
     <t>Parameter 2</t>
   </si>
   <si>
-    <t>external_1</t>
-  </si>
-  <si>
     <t>external_2</t>
   </si>
   <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>Group ID</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "unique": True,
-  "hidden": False,
-  "optional": True,
-  "readonly": False
-}
-</t>
-  </si>
-  <si>
-    <t>PRG-1234-1234-1234-0001</t>
-  </si>
-  <si>
-    <t>Group Name</t>
+    <t>Test parameter 2</t>
+  </si>
+  <si>
+    <t>Fulfillment</t>
+  </si>
+  <si>
+    <t>SingleLineText</t>
+  </si>
+  <si>
+    <t>{
+        "label": "Retry Count",
+        "hintText": "Retry Count",
+        "placeholderText": "Retry Count"
+    }</t>
+  </si>
+  <si>
+    <t>{
+        "hidden": false,
+        "unique": false,
+        "readonly": null,
+        "optional": false
+    }</t>
+  </si>
+  <si>
+    <t>PAR-4944-4118-0003</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>PGR-4725-5916-0002</t>
+  </si>
+  <si>
+    <t>{
+        "hidden": null,
+        "unique": null,
+        "readonly": null,
+        "optional": false
+    }</t>
+  </si>
+  <si>
+    <t>PAR-4944-4118-0004</t>
+  </si>
+  <si>
+    <t>PAR-4944-4118-0005</t>
+  </si>
+  <si>
+    <t>{
+        "hidden": null,
+        "unique": null,
+        "readonly": false,
+        "optional": false
+    }</t>
+  </si>
+  <si>
+    <t>PAR-4944-4118-0006</t>
+  </si>
+  <si>
+    <t>PAR-4944-4118-0007</t>
+  </si>
+  <si>
+    <t>{
+        "hidden": null,
+        "unique": false,
+        "readonly": null,
+        "optional": false
+    }</t>
+  </si>
+  <si>
+    <t>PAR-4944-4118-0008</t>
+  </si>
+  <si>
+    <t>Vendor Item ID</t>
+  </si>
+  <si>
+    <t>ERP Item ID</t>
   </si>
   <si>
     <t>Billing Frequency</t>
@@ -215,9 +312,6 @@
     <t>Commitment Term</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Unit ID</t>
   </si>
   <si>
@@ -227,10 +321,13 @@
     <t>Quantity Applicable</t>
   </si>
   <si>
-    <t>Parameter ExternalId 1</t>
-  </si>
-  <si>
-    <t>Parameter External Id 2</t>
+    <t>Parameter.external_1</t>
+  </si>
+  <si>
+    <t>Parameter.external_2</t>
+  </si>
+  <si>
+    <t>ITM-4944-4118-0001</t>
   </si>
   <si>
     <t>Adobe PhotoKiosk</t>
@@ -242,85 +339,106 @@
     <t>NAV12345</t>
   </si>
   <si>
+    <t>1m</t>
+  </si>
+  <si>
     <t>1y</t>
   </si>
   <si>
-    <t>1m</t>
-  </si>
-  <si>
-    <t>Draft</t>
+    <t>UNT-1916</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>test ex 21</t>
+  </si>
+  <si>
+    <t>ITM-4944-4118-0002</t>
   </si>
   <si>
     <t>Published</t>
   </si>
   <si>
-    <t>IGR-1234-1234-0001</t>
-  </si>
-  <si>
-    <t>UNT-1234</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Vendor Item ID</t>
-  </si>
-  <si>
-    <t>ERP Item ID</t>
-  </si>
-  <si>
-    <t>TPL-1234-1234</t>
-  </si>
-  <si>
-    <t>TPL-4321-4321</t>
-  </si>
-  <si>
-    <t>Order completion</t>
-  </si>
-  <si>
-    <t>Order quering</t>
+    <t>Migrate</t>
+  </si>
+  <si>
+    <t>test ex 22</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>TPL-4944-4118-0005</t>
+  </si>
+  <si>
+    <t>CLI Order completion</t>
   </si>
   <si>
     <t>OrderCompleted</t>
   </si>
   <si>
+    <t>Test content **Azure** {{ PAR-4944-4118-0001 }}</t>
+  </si>
+  <si>
+    <t>TPL-4944-4118-0006</t>
+  </si>
+  <si>
+    <t>CLI order quering</t>
+  </si>
+  <si>
     <t>OrderQuerying</t>
   </si>
   <si>
+    <t>Test content **Azure**</t>
+  </si>
+  <si>
     <t>Setting</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
+    <t>Change order validation (draft)</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Item selection validation</t>
+  </si>
+  <si>
+    <t>Order queue changes notification</t>
+  </si>
+  <si>
+    <t>Product ordering</t>
+  </si>
+  <si>
     <t>Enabled</t>
   </si>
   <si>
-    <t>Product ordering</t>
-  </si>
-  <si>
     <t>Product requests</t>
   </si>
   <si>
-    <t>Change order validation (draft)</t>
-  </si>
-  <si>
-    <t>Order queue changes notification</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Test content **Azure**</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>Constraints</t>
+    <t>Product requests. Request title</t>
+  </si>
+  <si>
+    <t>Product requests. Call to action label</t>
+  </si>
+  <si>
+    <t>Product request validation (draft)</t>
+  </si>
+  <si>
+    <t>Purchase order validation (draft)</t>
+  </si>
+  <si>
+    <t>Purchase order validation (query)</t>
+  </si>
+  <si>
+    <t>Termination order validation (draft)</t>
   </si>
 </sst>
 </file>
@@ -330,17 +448,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -404,11 +515,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -418,16 +529,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -742,11 +854,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142E87DF-93ED-684B-99C8-5507ACC80031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,11 +867,11 @@
     <col min="2" max="2" width="147.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -771,10 +883,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -787,10 +899,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -817,25 +929,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="238" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4">
         <v>45292</v>
@@ -843,7 +955,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5">
         <v>45292</v>
@@ -854,7 +966,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{E2C9F6AC-8AB4-FF40-A083-88F1EE3EA07B}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -862,85 +974,121 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCD0285-82AC-CC4A-B537-278BE5C23AFF}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="3" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{111107B1-B8BE-E244-8FF1-609B94738C1C}">
-      <formula1>"-,create,update,delete"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2A5B75-E36D-854F-A05E-3390E27B0482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,56 +1102,56 @@
     <col min="8" max="9" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H2" s="4">
         <v>45292</v>
@@ -1014,25 +1162,25 @@
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H3" s="5">
         <v>45292</v>
@@ -1043,7 +1191,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{E8D5CA3A-7F3F-1C4C-B43B-3F37371B3DAC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"-,create,update,delete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1053,11 +1201,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4EFEE5-00D4-8A4F-95E3-A18E9FC589C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1073,68 +1221,68 @@
     <col min="10" max="11" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J2" s="4">
         <v>45292</v>
@@ -1145,31 +1293,31 @@
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J3" s="5">
         <v>45292</v>
@@ -1180,7 +1328,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{C2C856F6-92E4-8E47-871A-4900747A9AB0}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"-,create,update,delete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1190,11 +1338,327 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3536C35-4AFF-8F4D-898C-BD5B1AAA8976}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="10" width="26" customWidth="1"/>
+    <col min="11" max="12" width="22.33203125" customWidth="1"/>
+    <col min="13" max="14" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="3">
+        <v>100</v>
+      </c>
+      <c r="M2" s="4">
+        <v>45292</v>
+      </c>
+      <c r="N2" s="4">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="3">
+        <v>200</v>
+      </c>
+      <c r="M3" s="5">
+        <v>45292</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45292</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"-,create,update,delete"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="10" width="26" customWidth="1"/>
+    <col min="11" max="12" width="22.33203125" customWidth="1"/>
+    <col min="13" max="14" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="3">
+        <v>300</v>
+      </c>
+      <c r="M2" s="4">
+        <v>45292</v>
+      </c>
+      <c r="N2" s="4">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="3">
+        <v>350</v>
+      </c>
+      <c r="M3" s="5">
+        <v>45292</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45292</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>"-,create,update,delete"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,399 +1670,130 @@
     <col min="5" max="5" width="28.1640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
-    <col min="11" max="12" width="24.5" customWidth="1"/>
+    <col min="10" max="11" width="22.33203125" customWidth="1"/>
+    <col min="12" max="13" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
+      <c r="I2" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="4">
-        <v>45292</v>
+        <v>69</v>
+      </c>
+      <c r="K2" s="3">
+        <v>400</v>
       </c>
       <c r="L2" s="4">
         <v>45292</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="4">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="5">
-        <v>45292</v>
+        <v>69</v>
+      </c>
+      <c r="K3" s="3">
+        <v>500</v>
       </c>
       <c r="L3" s="5">
+        <v>45292</v>
+      </c>
+      <c r="M3" s="5">
         <v>45292</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{5F62CA0D-D15C-8847-8FEF-5D77D9BDAD64}">
-      <formula1>"-,create,update,delete"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DB2931-F838-E14F-8A4A-4118C837B360}">
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
-    <col min="11" max="12" width="24.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="4">
-        <v>45292</v>
-      </c>
-      <c r="L2" s="4">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="5">
-        <v>45292</v>
-      </c>
-      <c r="L3" s="5">
-        <v>45292</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{4F15F754-88AA-294D-9C35-D3D4E9DA1A97}">
-      <formula1>"-,create,update,delete"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2AFC90-6B4F-AD4E-8D42-AC55164864F1}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="11" width="24.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="4">
-        <v>45292</v>
-      </c>
-      <c r="K2" s="4">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="5">
-        <v>45292</v>
-      </c>
-      <c r="K3" s="5">
-        <v>45292</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{8C5384FB-F2C1-0949-9A46-26530783E414}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"-,create,update,delete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1608,140 +1803,149 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D5DE6-8798-FA40-88D5-22DB9493D0CC}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
-    <col min="11" max="12" width="24.5" customWidth="1"/>
+    <col min="3" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="10" width="26" customWidth="1"/>
+    <col min="11" max="12" width="22.33203125" customWidth="1"/>
+    <col min="13" max="14" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="4">
-        <v>45292</v>
-      </c>
-      <c r="L2" s="4">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="3">
+        <v>700</v>
+      </c>
+      <c r="M2" s="4">
+        <v>45292</v>
+      </c>
+      <c r="N2" s="4">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="5">
-        <v>45292</v>
-      </c>
-      <c r="L3" s="5">
+        <v>60</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="3">
+        <v>800</v>
+      </c>
+      <c r="M3" s="5">
+        <v>45292</v>
+      </c>
+      <c r="N3" s="5">
         <v>45292</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{6EC6D73B-647B-EE4E-AE3D-B5A793CD02D2}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"-,create,update,delete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1751,11 +1955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7522A58-4779-BD40-8016-D262E12EFD2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1773,107 +1977,110 @@
     <col min="17" max="18" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="P2" t="s">
+        <v>92</v>
       </c>
       <c r="Q2" s="4">
         <v>45292</v>
@@ -1884,46 +2091,52 @@
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
+      <c r="O3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" t="s">
+        <v>96</v>
       </c>
       <c r="Q3" s="5">
         <v>45292</v>
@@ -1934,7 +2147,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F3 C2:C3" xr:uid="{B5E2471B-50BE-9346-A2DE-EE0BF0BB0870}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 F2:F3" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"-,create,update,delete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1944,11 +2157,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A0F67-1D7A-024E-B9C6-C6396D931CE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1961,50 +2174,50 @@
     <col min="7" max="8" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="G2" s="4">
         <v>45292</v>
@@ -2015,22 +2228,22 @@
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G3" s="5">
         <v>45292</v>
@@ -2041,7 +2254,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{FAA73E54-4D36-2946-8F94-AE8C20DE73C9}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"-,create,update,delete"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/product_files/PRD-1234-1234-1234-request-parameters-not-all-columns.xlsx
+++ b/tests/product_files/PRD-1234-1234-1234-request-parameters-not-all-columns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavellonkin/Documents/git/swo-marketplace-cli/tests/product_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susana.vazquez/Projects/swo-marketplace-cli/tests/product_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA425555-F98A-E94E-B2D8-2424F9042F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77851CAD-4824-EC42-9120-649869CA81FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="18880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="124">
   <si>
     <t>General Information</t>
   </si>
@@ -306,9 +306,6 @@
     <t>ERP Item ID</t>
   </si>
   <si>
-    <t>Billing Frequency</t>
-  </si>
-  <si>
     <t>Commitment Term</t>
   </si>
   <si>
@@ -439,6 +436,18 @@
   </si>
   <si>
     <t>Termination order validation (draft)</t>
+  </si>
+  <si>
+    <t>Billing Model</t>
+  </si>
+  <si>
+    <t>Billing Period</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>usage</t>
   </si>
 </sst>
 </file>
@@ -517,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -540,9 +549,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,9 +569,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -599,7 +609,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -705,7 +715,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -847,7 +857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -989,92 +999,92 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1657,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1956,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1969,15 +1979,15 @@
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="69.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="13" width="18.1640625" customWidth="1"/>
-    <col min="14" max="16" width="27.1640625" customWidth="1"/>
-    <col min="17" max="18" width="24.5" customWidth="1"/>
+    <col min="6" max="7" width="69.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="14" width="18.1640625" customWidth="1"/>
+    <col min="15" max="17" width="27.1640625" customWidth="1"/>
+    <col min="18" max="19" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
@@ -1997,101 +2007,107 @@
         <v>25</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
         <v>85</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
         <v>87</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
         <v>88</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>89</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
         <v>90</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>91</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="4">
+        <v>45292</v>
+      </c>
+      <c r="S2" s="4">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>92</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>45292</v>
-      </c>
-      <c r="R2" s="4">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -2100,50 +2116,56 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
         <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
         <v>88</v>
       </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
         <v>94</v>
       </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>95</v>
       </c>
-      <c r="P3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>45292</v>
-      </c>
       <c r="R3" s="5">
         <v>45292</v>
       </c>
+      <c r="S3" s="5">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G4" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2191,7 +2213,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>18</v>
@@ -2202,22 +2224,22 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4">
         <v>45292</v>
@@ -2228,22 +2250,22 @@
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="5">
         <v>45292</v>
